--- a/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:36:09+00:00</t>
+    <t>2024-05-17T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T12:22:27+00:00</t>
+    <t>2024-05-17T13:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:17:34+00:00</t>
+    <t>2024-05-23T11:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T11:14:51+00:00</t>
+    <t>2024-05-23T12:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:15:30+00:00</t>
+    <t>2024-05-23T12:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:44:01+00:00</t>
+    <t>2024-05-23T12:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-domainVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:55:33+00:00</t>
+    <t>2024-05-24T07:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
